--- a/data/trans_orig/P36BPD07_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_R-Estudios-trans_orig.xlsx
@@ -736,67 +736,67 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>691</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>680880</v>
+        <v>64308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>664701</v>
+        <v>48633</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>696555</v>
+        <v>80487</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9137024548663254</v>
+        <v>0.08629754513367464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8919908300726459</v>
+        <v>0.06526265554287111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9347373444571289</v>
+        <v>0.1080091699273541</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>830</v>
+        <v>55</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>927224</v>
+        <v>57706</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>909715</v>
+        <v>43893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>941037</v>
+        <v>75215</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9414114434658495</v>
+        <v>0.05858855653415052</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.923634398244111</v>
+        <v>0.04456433680425549</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9554356631957445</v>
+        <v>0.07636560175588891</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>1521</v>
+        <v>117</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>1608104</v>
+        <v>122013</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1586630</v>
+        <v>102322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1627795</v>
+        <v>143487</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9294767634983434</v>
+        <v>0.07052323650165657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9170649002288651</v>
+        <v>0.0591419135442325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9408580864557675</v>
+        <v>0.082935099771135</v>
       </c>
     </row>
     <row r="5">
@@ -807,67 +807,67 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>62</v>
+        <v>691</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>64308</v>
+        <v>680880</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48633</v>
+        <v>664701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80487</v>
+        <v>696555</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08629754513367464</v>
+        <v>0.9137024548663254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06526265554287111</v>
+        <v>0.8919908300726459</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1080091699273541</v>
+        <v>0.9347373444571289</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>55</v>
+        <v>830</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>57706</v>
+        <v>927224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43893</v>
+        <v>909715</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75215</v>
+        <v>941037</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05858855653415052</v>
+        <v>0.9414114434658495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04456433680425549</v>
+        <v>0.923634398244111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07636560175588891</v>
+        <v>0.9554356631957445</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>117</v>
+        <v>1521</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>122013</v>
+        <v>1608104</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102322</v>
+        <v>1586630</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>143487</v>
+        <v>1627795</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07052323650165657</v>
+        <v>0.9294767634983434</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0591419135442325</v>
+        <v>0.9170649002288651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.082935099771135</v>
+        <v>0.9408580864557675</v>
       </c>
     </row>
     <row r="6">
@@ -953,67 +953,67 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1574</v>
+        <v>368</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1672146</v>
+        <v>393263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1637018</v>
+        <v>355364</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1710045</v>
+        <v>428391</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8095953859882601</v>
+        <v>0.19040461401174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7925877385533683</v>
+        <v>0.1720551161723978</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8279448838276022</v>
+        <v>0.2074122614466317</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>1558</v>
+        <v>340</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>1632109</v>
+        <v>344816</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1596876</v>
+        <v>313069</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1663856</v>
+        <v>380049</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8255798547700328</v>
+        <v>0.1744201452299672</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8077572791586823</v>
+        <v>0.1583615579409123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8416384420590878</v>
+        <v>0.1922427208413178</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>3132</v>
+        <v>708</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>3304254</v>
+        <v>738079</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3249880</v>
+        <v>692856</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3349477</v>
+        <v>792453</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8174126754868226</v>
+        <v>0.1825873245131773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8039615378717514</v>
+        <v>0.171400153371725</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8285998466282749</v>
+        <v>0.1960384621282485</v>
       </c>
     </row>
     <row r="8">
@@ -1024,67 +1024,67 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>368</v>
+        <v>1574</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>393263</v>
+        <v>1672146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>355364</v>
+        <v>1637018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>428391</v>
+        <v>1710045</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.19040461401174</v>
+        <v>0.8095953859882601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1720551161723978</v>
+        <v>0.7925877385533683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2074122614466317</v>
+        <v>0.8279448838276022</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>340</v>
+        <v>1558</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>344816</v>
+        <v>1632109</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313069</v>
+        <v>1596876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>380049</v>
+        <v>1663856</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1744201452299672</v>
+        <v>0.8255798547700328</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1583615579409123</v>
+        <v>0.8077572791586823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1922427208413178</v>
+        <v>0.8416384420590878</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>708</v>
+        <v>3132</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>738079</v>
+        <v>3304254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692856</v>
+        <v>3249880</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>792453</v>
+        <v>3349477</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1825873245131773</v>
+        <v>0.8174126754868226</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.171400153371725</v>
+        <v>0.8039615378717514</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1960384621282485</v>
+        <v>0.8285998466282749</v>
       </c>
     </row>
     <row r="9">
@@ -1170,67 +1170,67 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>433</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>477369</v>
+        <v>66408</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>461550</v>
+        <v>51642</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>492135</v>
+        <v>82227</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8778772863373404</v>
+        <v>0.1221227136626595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8487851069377434</v>
+        <v>0.09496963887503367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9050303611249659</v>
+        <v>0.1512148930622562</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>462</v>
+        <v>63</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>485162</v>
+        <v>62810</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>469476</v>
+        <v>48645</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>499327</v>
+        <v>78496</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8853769258432963</v>
+        <v>0.1146230741567037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8567511575914473</v>
+        <v>0.08877276030218396</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9112272396978158</v>
+        <v>0.1432488424085525</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>895</v>
+        <v>128</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>962531</v>
+        <v>129218</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>940491</v>
+        <v>108178</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>983571</v>
+        <v>151258</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8816415136176911</v>
+        <v>0.118358486382309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8614532334221164</v>
+        <v>0.09908650892028427</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9009134910797156</v>
+        <v>0.1385467665778835</v>
       </c>
     </row>
     <row r="11">
@@ -1241,67 +1241,67 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>65</v>
+        <v>433</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>66408</v>
+        <v>477369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51642</v>
+        <v>461550</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82227</v>
+        <v>492135</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1221227136626595</v>
+        <v>0.8778772863373404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09496963887503367</v>
+        <v>0.8487851069377434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1512148930622562</v>
+        <v>0.9050303611249659</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>63</v>
+        <v>462</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>62810</v>
+        <v>485162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48645</v>
+        <v>469476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78496</v>
+        <v>499327</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1146230741567037</v>
+        <v>0.8853769258432963</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08877276030218396</v>
+        <v>0.8567511575914473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1432488424085525</v>
+        <v>0.9112272396978158</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>128</v>
+        <v>895</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>129218</v>
+        <v>962531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108178</v>
+        <v>940491</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151258</v>
+        <v>983571</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.118358486382309</v>
+        <v>0.8816415136176911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09908650892028427</v>
+        <v>0.8614532334221164</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1385467665778835</v>
+        <v>0.9009134910797156</v>
       </c>
     </row>
     <row r="12">
@@ -1387,67 +1387,67 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2698</v>
+        <v>495</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2830394</v>
+        <v>523979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2786347</v>
+        <v>481932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2872441</v>
+        <v>568026</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8437923620836086</v>
+        <v>0.1562076379163913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8306610742901324</v>
+        <v>0.1436728458495532</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8563271541504468</v>
+        <v>0.1693389257098676</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>2850</v>
+        <v>458</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>3044495</v>
+        <v>465331</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3006993</v>
+        <v>424227</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3085599</v>
+        <v>502833</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8674204095056172</v>
+        <v>0.1325795904943828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8567355483084205</v>
+        <v>0.1208684053539452</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8791315946460548</v>
+        <v>0.1432644516915795</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>5548</v>
+        <v>953</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>5874889</v>
+        <v>989310</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5811383</v>
+        <v>935794</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5928405</v>
+        <v>1052816</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8558739364140271</v>
+        <v>0.1441260635859729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8466220897803887</v>
+        <v>0.1363297314654682</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8636702685345319</v>
+        <v>0.1533779102196114</v>
       </c>
     </row>
     <row r="14">
@@ -1458,67 +1458,67 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>495</v>
+        <v>2698</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>523979</v>
+        <v>2830394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481932</v>
+        <v>2786347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>568026</v>
+        <v>2872441</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1562076379163913</v>
+        <v>0.8437923620836086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1436728458495532</v>
+        <v>0.8306610742901324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1693389257098676</v>
+        <v>0.8563271541504468</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>458</v>
+        <v>2850</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>465331</v>
+        <v>3044495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>424227</v>
+        <v>3006993</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>502833</v>
+        <v>3085599</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1325795904943828</v>
+        <v>0.8674204095056172</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1208684053539452</v>
+        <v>0.8567355483084205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1432644516915795</v>
+        <v>0.8791315946460548</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>953</v>
+        <v>5548</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>989310</v>
+        <v>5874889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>935794</v>
+        <v>5811383</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1052816</v>
+        <v>5928405</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1441260635859729</v>
+        <v>0.8558739364140271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1363297314654682</v>
+        <v>0.8466220897803887</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1533779102196114</v>
+        <v>0.8636702685345319</v>
       </c>
     </row>
     <row r="15">
@@ -1843,67 +1843,67 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>522</v>
+        <v>167</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>428348</v>
+        <v>148046</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>407480</v>
+        <v>126441</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>449953</v>
+        <v>168914</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7431518053505468</v>
+        <v>0.2568481946494532</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7069478280049303</v>
+        <v>0.2193656876078092</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7806343123921907</v>
+        <v>0.2930521719950698</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>1140</v>
+        <v>287</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>635637</v>
+        <v>186401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>614330</v>
+        <v>166552</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>655486</v>
+        <v>207708</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7732457433212014</v>
+        <v>0.2267542566787986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7473255726025618</v>
+        <v>0.2026088269736854</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7973911730263147</v>
+        <v>0.2526744273974381</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>1662</v>
+        <v>454</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>1063986</v>
+        <v>334446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1033722</v>
+        <v>306396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1092036</v>
+        <v>364710</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7608418745392386</v>
+        <v>0.2391581254607613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7392009915902237</v>
+        <v>0.2190994790007105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7809005209992895</v>
+        <v>0.2607990084097763</v>
       </c>
     </row>
     <row r="5">
@@ -1914,67 +1914,67 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>167</v>
+        <v>522</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>148046</v>
+        <v>428348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126441</v>
+        <v>407480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168914</v>
+        <v>449953</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2568481946494532</v>
+        <v>0.7431518053505468</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2193656876078092</v>
+        <v>0.7069478280049303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2930521719950698</v>
+        <v>0.7806343123921907</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287</v>
+        <v>1140</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>186401</v>
+        <v>635637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166552</v>
+        <v>614330</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>207708</v>
+        <v>655486</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2267542566787986</v>
+        <v>0.7732457433212014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2026088269736854</v>
+        <v>0.7473255726025618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2526744273974381</v>
+        <v>0.7973911730263147</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>454</v>
+        <v>1662</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>334446</v>
+        <v>1063986</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>306396</v>
+        <v>1033722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>364710</v>
+        <v>1092036</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2391581254607613</v>
+        <v>0.7608418745392386</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2190994790007105</v>
+        <v>0.7392009915902237</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2607990084097763</v>
+        <v>0.7809005209992895</v>
       </c>
     </row>
     <row r="6">
@@ -2060,67 +2060,67 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1383</v>
+        <v>606</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1504831</v>
+        <v>722716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1452122</v>
+        <v>666754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1560793</v>
+        <v>775425</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6755553488793089</v>
+        <v>0.3244446511206911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6518929463542786</v>
+        <v>0.2993222376380321</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7006777623619677</v>
+        <v>0.3481070536457213</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2239</v>
+        <v>675</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>1590934</v>
+        <v>575468</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1550448</v>
+        <v>538348</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1628054</v>
+        <v>615954</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.734366839831585</v>
+        <v>0.265633160168415</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7156786979218943</v>
+        <v>0.248498859662201</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7515011403377991</v>
+        <v>0.2843213020781059</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>3622</v>
+        <v>1281</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>3095765</v>
+        <v>1298184</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3024095</v>
+        <v>1235681</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3158268</v>
+        <v>1369854</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7045518899078009</v>
+        <v>0.2954481100921991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6882408301326883</v>
+        <v>0.2812233768796207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7187766231203792</v>
+        <v>0.3117591698673117</v>
       </c>
     </row>
     <row r="8">
@@ -2131,67 +2131,67 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>606</v>
+        <v>1383</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>722716</v>
+        <v>1504831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>666754</v>
+        <v>1452122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>775425</v>
+        <v>1560793</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3244446511206911</v>
+        <v>0.6755553488793089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2993222376380321</v>
+        <v>0.6518929463542786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3481070536457213</v>
+        <v>0.7006777623619677</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>675</v>
+        <v>2239</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>575468</v>
+        <v>1590934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>538348</v>
+        <v>1550448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>615954</v>
+        <v>1628054</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.265633160168415</v>
+        <v>0.734366839831585</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.248498859662201</v>
+        <v>0.7156786979218943</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2843213020781059</v>
+        <v>0.7515011403377991</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>1281</v>
+        <v>3622</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>1298184</v>
+        <v>3095765</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1235681</v>
+        <v>3024095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1369854</v>
+        <v>3158268</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2954481100921991</v>
+        <v>0.7045518899078009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2812233768796207</v>
+        <v>0.6882408301326883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3117591698673117</v>
+        <v>0.7187766231203792</v>
       </c>
     </row>
     <row r="9">
@@ -2277,67 +2277,67 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>556</v>
+        <v>125</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>578051</v>
+        <v>133536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>551626</v>
+        <v>113430</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>598157</v>
+        <v>159961</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8123409634654559</v>
+        <v>0.1876590365345441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7752046824520262</v>
+        <v>0.1594049074100806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8405950925899195</v>
+        <v>0.2247953175479739</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>855</v>
+        <v>146</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>611963</v>
+        <v>121022</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>593186</v>
+        <v>103357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>629628</v>
+        <v>139799</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8348914540607852</v>
+        <v>0.1651085459392148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8092740549047134</v>
+        <v>0.1410077189807832</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8589922810192168</v>
+        <v>0.1907259450952868</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>1411</v>
+        <v>271</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>1190014</v>
+        <v>254558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1157797</v>
+        <v>227661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1216911</v>
+        <v>286775</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.823783225899366</v>
+        <v>0.176216774100634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8014812619842091</v>
+        <v>0.1575972527170385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8424027472829614</v>
+        <v>0.1985187380157908</v>
       </c>
     </row>
     <row r="11">
@@ -2348,67 +2348,67 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>125</v>
+        <v>556</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>133536</v>
+        <v>578051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113430</v>
+        <v>551626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159961</v>
+        <v>598157</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1876590365345441</v>
+        <v>0.8123409634654559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1594049074100806</v>
+        <v>0.7752046824520262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2247953175479739</v>
+        <v>0.8405950925899195</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>146</v>
+        <v>855</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>121022</v>
+        <v>611963</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103357</v>
+        <v>593186</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139799</v>
+        <v>629628</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1651085459392148</v>
+        <v>0.8348914540607852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1410077189807832</v>
+        <v>0.8092740549047134</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1907259450952868</v>
+        <v>0.8589922810192168</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>271</v>
+        <v>1411</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>254558</v>
+        <v>1190014</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>227661</v>
+        <v>1157797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>286775</v>
+        <v>1216911</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.176216774100634</v>
+        <v>0.823783225899366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1575972527170385</v>
+        <v>0.8014812619842091</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1985187380157908</v>
+        <v>0.8424027472829614</v>
       </c>
     </row>
     <row r="12">
@@ -2494,67 +2494,67 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2461</v>
+        <v>898</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2511231</v>
+        <v>1004297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2449381</v>
+        <v>947142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2568386</v>
+        <v>1066147</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7143253588739947</v>
+        <v>0.2856746411260054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6967319299208199</v>
+        <v>0.2694166800426765</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7305833199573236</v>
+        <v>0.3032680700791803</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>4234</v>
+        <v>1108</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>2838534</v>
+        <v>882891</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2792543</v>
+        <v>834118</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2887307</v>
+        <v>928882</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7627546161884788</v>
+        <v>0.2372453838115209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7503962173112453</v>
+        <v>0.2241394952388053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7758605047611946</v>
+        <v>0.2496037826887545</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>6695</v>
+        <v>2006</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>5349765</v>
+        <v>1887188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5271671</v>
+        <v>1808141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5428812</v>
+        <v>1965282</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7392289114208566</v>
+        <v>0.2607710885791434</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7284379475025617</v>
+        <v>0.249848385022332</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7501516149776684</v>
+        <v>0.2715620524974383</v>
       </c>
     </row>
     <row r="14">
@@ -2565,67 +2565,67 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>898</v>
+        <v>2461</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1004297</v>
+        <v>2511231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>947142</v>
+        <v>2449381</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1066147</v>
+        <v>2568386</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2856746411260054</v>
+        <v>0.7143253588739947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2694166800426765</v>
+        <v>0.6967319299208199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3032680700791803</v>
+        <v>0.7305833199573236</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1108</v>
+        <v>4234</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>882891</v>
+        <v>2838534</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>834118</v>
+        <v>2792543</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>928882</v>
+        <v>2887307</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2372453838115209</v>
+        <v>0.7627546161884788</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2241394952388053</v>
+        <v>0.7503962173112453</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2496037826887545</v>
+        <v>0.7758605047611946</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>2006</v>
+        <v>6695</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>1887188</v>
+        <v>5349765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1808141</v>
+        <v>5271671</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1965282</v>
+        <v>5428812</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2607710885791434</v>
+        <v>0.7392289114208566</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.249848385022332</v>
+        <v>0.7284379475025617</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2715620524974383</v>
+        <v>0.7501516149776684</v>
       </c>
     </row>
     <row r="15">

--- a/data/trans_orig/P36BPD07_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_R-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>64308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48633</v>
+        <v>50221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80487</v>
+        <v>82753</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08629754513367464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06526265554287111</v>
+        <v>0.06739426796894445</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1080091699273541</v>
+        <v>0.1110504759512388</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -763,19 +763,19 @@
         <v>57706</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43893</v>
+        <v>43986</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75215</v>
+        <v>76107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05858855653415052</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04456433680425549</v>
+        <v>0.0446588697500197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07636560175588891</v>
+        <v>0.07727181991228965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -784,19 +784,19 @@
         <v>122013</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102322</v>
+        <v>102714</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143487</v>
+        <v>147091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07052323650165657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0591419135442325</v>
+        <v>0.05936817921396475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.082935099771135</v>
+        <v>0.08501816424223149</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>680880</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>664701</v>
+        <v>662435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>696555</v>
+        <v>694967</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9137024548663254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8919908300726459</v>
+        <v>0.8889495240487612</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9347373444571289</v>
+        <v>0.9326057320310556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>830</v>
@@ -834,19 +834,19 @@
         <v>927224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>909715</v>
+        <v>908823</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>941037</v>
+        <v>940944</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9414114434658495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.923634398244111</v>
+        <v>0.9227281800877101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9554356631957445</v>
+        <v>0.9553411302499801</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1521</v>
@@ -855,19 +855,19 @@
         <v>1608104</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1586630</v>
+        <v>1583026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1627795</v>
+        <v>1627403</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9294767634983434</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9170649002288651</v>
+        <v>0.9149818357577686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9408580864557675</v>
+        <v>0.9406318207860355</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>393263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>355364</v>
+        <v>357575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>428391</v>
+        <v>427492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.19040461401174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1720551161723978</v>
+        <v>0.173125691286026</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2074122614466317</v>
+        <v>0.2069771067535356</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>340</v>
@@ -980,19 +980,19 @@
         <v>344816</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>313069</v>
+        <v>310249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>380049</v>
+        <v>380310</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1744201452299672</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1583615579409123</v>
+        <v>0.1569350811784661</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1922427208413178</v>
+        <v>0.1923744383019692</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>708</v>
@@ -1001,19 +1001,19 @@
         <v>738079</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>692856</v>
+        <v>692484</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>792453</v>
+        <v>786854</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1825873245131773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.171400153371725</v>
+        <v>0.1713080614680594</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1960384621282485</v>
+        <v>0.1946535441840312</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1672146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1637018</v>
+        <v>1637917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1710045</v>
+        <v>1707834</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8095953859882601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7925877385533683</v>
+        <v>0.7930228932464645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8279448838276022</v>
+        <v>0.8268743087139744</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1558</v>
@@ -1051,19 +1051,19 @@
         <v>1632109</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1596876</v>
+        <v>1596615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1663856</v>
+        <v>1666676</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8255798547700328</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8077572791586823</v>
+        <v>0.8076255616980308</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8416384420590878</v>
+        <v>0.8430649188215337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3132</v>
@@ -1072,19 +1072,19 @@
         <v>3304254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3249880</v>
+        <v>3255479</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3349477</v>
+        <v>3349849</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8174126754868226</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8039615378717514</v>
+        <v>0.8053464558159686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8285998466282749</v>
+        <v>0.8286919385319406</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>66408</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51642</v>
+        <v>53074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82227</v>
+        <v>84717</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1221227136626595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09496963887503367</v>
+        <v>0.09760300713727611</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1512148930622562</v>
+        <v>0.1557931107145651</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -1197,19 +1197,19 @@
         <v>62810</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48645</v>
+        <v>48903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78496</v>
+        <v>79356</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1146230741567037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08877276030218396</v>
+        <v>0.08924404911965908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1432488424085525</v>
+        <v>0.1448175995024482</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -1218,19 +1218,19 @@
         <v>129218</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108178</v>
+        <v>108170</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151258</v>
+        <v>150544</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.118358486382309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09908650892028427</v>
+        <v>0.09907922782615787</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1385467665778835</v>
+        <v>0.1378924937832298</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>477369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>461550</v>
+        <v>459060</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492135</v>
+        <v>490703</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8778772863373404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8487851069377434</v>
+        <v>0.8442068892854351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9050303611249659</v>
+        <v>0.9023969928627239</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>462</v>
@@ -1268,19 +1268,19 @@
         <v>485162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>469476</v>
+        <v>468616</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>499327</v>
+        <v>499069</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8853769258432963</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8567511575914473</v>
+        <v>0.8551824004975518</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9112272396978158</v>
+        <v>0.9107559508803406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>895</v>
@@ -1289,19 +1289,19 @@
         <v>962531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>940491</v>
+        <v>941205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>983571</v>
+        <v>983579</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8816415136176911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8614532334221164</v>
+        <v>0.8621075062167703</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9009134910797156</v>
+        <v>0.9009207721738423</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>523979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>481932</v>
+        <v>481897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>568026</v>
+        <v>568419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1562076379163913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1436728458495532</v>
+        <v>0.1436622850221168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1693389257098676</v>
+        <v>0.1694560845393181</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>458</v>
@@ -1414,19 +1414,19 @@
         <v>465331</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>424227</v>
+        <v>424674</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>502833</v>
+        <v>503410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1325795904943828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1208684053539452</v>
+        <v>0.1209957475651841</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1432644516915795</v>
+        <v>0.1434287087493719</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>953</v>
@@ -1435,19 +1435,19 @@
         <v>989310</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>935794</v>
+        <v>934828</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1052816</v>
+        <v>1050469</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1441260635859729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1363297314654682</v>
+        <v>0.1361889667773618</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1533779102196114</v>
+        <v>0.1530358731102781</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2830394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2786347</v>
+        <v>2785954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2872441</v>
+        <v>2872476</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8437923620836086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8306610742901324</v>
+        <v>0.830543915460682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8563271541504468</v>
+        <v>0.8563377149778827</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2850</v>
@@ -1485,19 +1485,19 @@
         <v>3044495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3006993</v>
+        <v>3006416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3085599</v>
+        <v>3085152</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8674204095056172</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8567355483084205</v>
+        <v>0.856571291250628</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8791315946460548</v>
+        <v>0.8790042524348159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5548</v>
@@ -1506,19 +1506,19 @@
         <v>5874889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5811383</v>
+        <v>5813730</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5928405</v>
+        <v>5929371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8558739364140271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8466220897803887</v>
+        <v>0.8469641268897219</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8636702685345319</v>
+        <v>0.8638110332226383</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>148046</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>126441</v>
+        <v>128013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168914</v>
+        <v>169081</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2568481946494532</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2193656876078092</v>
+        <v>0.222093416073698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2930521719950698</v>
+        <v>0.2933435894754215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>287</v>
@@ -1870,19 +1870,19 @@
         <v>186401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>166552</v>
+        <v>166599</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>207708</v>
+        <v>206697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2267542566787986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2026088269736854</v>
+        <v>0.2026661316936781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2526744273974381</v>
+        <v>0.2514445505729819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>454</v>
@@ -1891,19 +1891,19 @@
         <v>334446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306396</v>
+        <v>305675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364710</v>
+        <v>365351</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2391581254607613</v>
+        <v>0.2391581254607612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2190994790007105</v>
+        <v>0.2185842488402167</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2607990084097763</v>
+        <v>0.2612577046784331</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>428348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407480</v>
+        <v>407313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449953</v>
+        <v>448381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7431518053505468</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7069478280049303</v>
+        <v>0.7066564105245786</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7806343123921907</v>
+        <v>0.7779065839263022</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1140</v>
@@ -1941,19 +1941,19 @@
         <v>635637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>614330</v>
+        <v>615341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>655486</v>
+        <v>655439</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7732457433212014</v>
+        <v>0.7732457433212013</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7473255726025618</v>
+        <v>0.7485554494270181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7973911730263147</v>
+        <v>0.7973338683063219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1662</v>
@@ -1962,19 +1962,19 @@
         <v>1063986</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1033722</v>
+        <v>1033081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1092036</v>
+        <v>1092757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7608418745392386</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7392009915902237</v>
+        <v>0.7387422953215671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7809005209992895</v>
+        <v>0.7814157511597833</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>722716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>666754</v>
+        <v>674768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>775425</v>
+        <v>777199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3244446511206911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2993222376380321</v>
+        <v>0.3029199513175741</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3481070536457213</v>
+        <v>0.3489036663257387</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>675</v>
@@ -2087,19 +2087,19 @@
         <v>575468</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>538348</v>
+        <v>537490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>615954</v>
+        <v>615243</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.265633160168415</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.248498859662201</v>
+        <v>0.2481027422202894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2843213020781059</v>
+        <v>0.2839931261798547</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1281</v>
@@ -2108,19 +2108,19 @@
         <v>1298184</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1235681</v>
+        <v>1236028</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1369854</v>
+        <v>1372694</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2954481100921991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2812233768796207</v>
+        <v>0.2813023106840272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3117591698673117</v>
+        <v>0.3124055151739527</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1504831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1452122</v>
+        <v>1450348</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1560793</v>
+        <v>1552779</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6755553488793089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6518929463542786</v>
+        <v>0.6510963336742612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7006777623619677</v>
+        <v>0.6970800486824257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2239</v>
@@ -2158,19 +2158,19 @@
         <v>1590934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1550448</v>
+        <v>1551159</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1628054</v>
+        <v>1628912</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.734366839831585</v>
+        <v>0.7343668398315849</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7156786979218943</v>
+        <v>0.7160068738201456</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7515011403377991</v>
+        <v>0.7518972577797107</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3622</v>
@@ -2179,19 +2179,19 @@
         <v>3095765</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3024095</v>
+        <v>3021255</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3158268</v>
+        <v>3157921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7045518899078009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6882408301326883</v>
+        <v>0.6875944848260475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7187766231203792</v>
+        <v>0.7186976893159729</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>133536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113430</v>
+        <v>113083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159961</v>
+        <v>156390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1876590365345441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1594049074100806</v>
+        <v>0.1589160120351907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2247953175479739</v>
+        <v>0.2197769640980501</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>146</v>
@@ -2304,19 +2304,19 @@
         <v>121022</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103357</v>
+        <v>101923</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139799</v>
+        <v>140921</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1651085459392148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1410077189807832</v>
+        <v>0.1390517174774063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1907259450952868</v>
+        <v>0.1922569673885179</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>271</v>
@@ -2325,19 +2325,19 @@
         <v>254558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227661</v>
+        <v>224797</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>286775</v>
+        <v>285563</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.176216774100634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1575972527170385</v>
+        <v>0.1556148005984384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1985187380157908</v>
+        <v>0.1976799767426315</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>578051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>551626</v>
+        <v>555197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>598157</v>
+        <v>598504</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8123409634654559</v>
+        <v>0.8123409634654557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7752046824520262</v>
+        <v>0.78022303590195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8405950925899195</v>
+        <v>0.8410839879648093</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>855</v>
@@ -2375,19 +2375,19 @@
         <v>611963</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>593186</v>
+        <v>592064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>629628</v>
+        <v>631062</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8348914540607852</v>
+        <v>0.8348914540607851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8092740549047134</v>
+        <v>0.8077430326114822</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8589922810192168</v>
+        <v>0.8609482825225938</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1411</v>
@@ -2396,19 +2396,19 @@
         <v>1190014</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1157797</v>
+        <v>1159009</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1216911</v>
+        <v>1219775</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.823783225899366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8014812619842091</v>
+        <v>0.802320023257368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8424027472829614</v>
+        <v>0.8443851994015613</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>1004297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>947142</v>
+        <v>946000</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1066147</v>
+        <v>1063138</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2856746411260054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2694166800426765</v>
+        <v>0.2690919730438621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3032680700791803</v>
+        <v>0.3024120230403893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1108</v>
@@ -2521,19 +2521,19 @@
         <v>882891</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>834118</v>
+        <v>837217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>928882</v>
+        <v>933850</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2372453838115209</v>
+        <v>0.237245383811521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2241394952388053</v>
+        <v>0.2249722506575905</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2496037826887545</v>
+        <v>0.2509388061688787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2006</v>
@@ -2542,19 +2542,19 @@
         <v>1887188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1808141</v>
+        <v>1804841</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1965282</v>
+        <v>1963967</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2607710885791434</v>
+        <v>0.2607710885791433</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.249848385022332</v>
+        <v>0.2493923677162886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2715620524974383</v>
+        <v>0.2713803787651051</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>2511231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2449381</v>
+        <v>2452390</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2568386</v>
+        <v>2569528</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7143253588739947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6967319299208199</v>
+        <v>0.6975879769596106</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7305833199573236</v>
+        <v>0.7309080269561378</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4234</v>
@@ -2592,19 +2592,19 @@
         <v>2838534</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2792543</v>
+        <v>2787575</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2887307</v>
+        <v>2884208</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7627546161884788</v>
+        <v>0.762754616188479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7503962173112453</v>
+        <v>0.7490611938311212</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7758605047611946</v>
+        <v>0.7750277493424096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6695</v>
@@ -2613,19 +2613,19 @@
         <v>5349765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5271671</v>
+        <v>5272986</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5428812</v>
+        <v>5432112</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7392289114208566</v>
+        <v>0.7392289114208567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7284379475025617</v>
+        <v>0.728619621234895</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7501516149776684</v>
+        <v>0.7506076322837119</v>
       </c>
     </row>
     <row r="15">
